--- a/ig/homecareobservation/all-profiles.xlsx
+++ b/ig/homecareobservation/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12834" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12834" uniqueCount="1174">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-trial-use</t>
+    <t>1.1.1-trial-use</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T10:47:31+00:00</t>
+    <t>2025-09-17T12:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1086,7 +1086,7 @@
   </si>
   <si>
     <t>Quantity
-string</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1884,10 +1884,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -3676,7 +3672,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 medcom-hcobs-definition-url:SHALL reference a MedCom HomeCare Observation MessageDefinition whose canonical URL starts with
-https://medcomfhir.dk/ig/messagedefinitions/MessageDefinition-MedComHomeCareObservationMessageDefinition1.—that is, any version 1.x of the message definition {matches('^http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComHomeCareObservationMessageDefinition1[.][0-9]{1,2}$')}</t>
+https://medcomfhir.dk/ig/messagedefinitions/MessageDefinition-MedComHomeCareObservationMessageDefinition|1.—that is, any version 1.x of the message definition {matches('^http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComHomeCareObservationMessageDefinition|1[.][0-9]{1,2}$')}</t>
   </si>
 </sst>
 </file>
@@ -3997,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24">
@@ -4005,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
@@ -4021,7 +4017,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27">
@@ -4029,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28">
@@ -4085,7 +4081,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35">
@@ -4121,7 +4117,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40">
@@ -4129,7 +4125,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41">
@@ -4161,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45">
@@ -4169,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48">
@@ -4193,7 +4189,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49">
@@ -4249,7 +4245,7 @@
         <v>23</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="56">
@@ -4285,7 +4281,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61">
@@ -4293,7 +4289,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62">
@@ -4325,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="66">
@@ -4333,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="67">
@@ -4349,7 +4345,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69">
@@ -4357,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="70">
@@ -4413,7 +4409,7 @@
         <v>23</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="77">
@@ -4449,7 +4445,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82">
@@ -4457,7 +4453,7 @@
         <v>33</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83">
@@ -24735,16 +24731,16 @@
         <v>86</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N192" t="s" s="2">
         <v>346</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>348</v>
@@ -24814,7 +24810,7 @@
         <v>3</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>603</v>
@@ -24845,13 +24841,13 @@
         <v>353</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>346</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>348</v>
@@ -24923,10 +24919,10 @@
         <v>3</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="C194" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25026,10 +25022,10 @@
         <v>3</v>
       </c>
       <c r="B195" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25131,10 +25127,10 @@
         <v>3</v>
       </c>
       <c r="B196" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C196" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="C196" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25238,10 +25234,10 @@
         <v>3</v>
       </c>
       <c r="B197" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25345,10 +25341,10 @@
         <v>3</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25450,10 +25446,10 @@
         <v>3</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="C199" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25555,10 +25551,10 @@
         <v>3</v>
       </c>
       <c r="B200" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C200" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="C200" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25662,10 +25658,10 @@
         <v>3</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25691,13 +25687,13 @@
         <v>165</v>
       </c>
       <c r="M201" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>403</v>
@@ -25749,7 +25745,7 @@
         <v>78</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>76</v>
@@ -25769,10 +25765,10 @@
         <v>3</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25835,11 +25831,11 @@
         <v>404</v>
       </c>
       <c r="Z202" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AA202" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AA202" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AB202" t="s" s="2">
         <v>78</v>
       </c>
@@ -25856,7 +25852,7 @@
         <v>78</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>76</v>
@@ -25876,10 +25872,10 @@
         <v>3</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25905,10 +25901,10 @@
         <v>79</v>
       </c>
       <c r="M203" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>481</v>
@@ -25963,7 +25959,7 @@
         <v>78</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>76</v>
@@ -25980,17 +25976,17 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26012,13 +26008,13 @@
         <v>79</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="N204" t="s" s="2">
+      <c r="O204" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
@@ -26068,7 +26064,7 @@
         <v>78</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>76</v>
@@ -26080,18 +26076,18 @@
         <v>78</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26190,13 +26186,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26293,13 +26289,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26396,13 +26392,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26501,13 +26497,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26533,13 +26529,13 @@
         <v>87</v>
       </c>
       <c r="M209" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="N209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
@@ -26589,7 +26585,7 @@
         <v>78</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>76</v>
@@ -26606,13 +26602,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26638,13 +26634,13 @@
         <v>334</v>
       </c>
       <c r="M210" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N210" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="N210" t="s" s="2">
+      <c r="O210" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -26694,7 +26690,7 @@
         <v>78</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>76</v>
@@ -26711,13 +26707,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26743,13 +26739,13 @@
         <v>99</v>
       </c>
       <c r="M211" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N211" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="N211" t="s" s="2">
+      <c r="O211" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
@@ -26799,7 +26795,7 @@
         <v>78</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>76</v>
@@ -26816,13 +26812,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -26845,16 +26841,16 @@
         <v>86</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="N212" t="s" s="2">
+      <c r="O212" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
@@ -26904,7 +26900,7 @@
         <v>78</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>76</v>
@@ -26921,13 +26917,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26953,13 +26949,13 @@
         <v>193</v>
       </c>
       <c r="M213" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N213" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
@@ -26970,7 +26966,7 @@
         <v>78</v>
       </c>
       <c r="T213" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U213" t="s" s="2">
         <v>78</v>
@@ -26988,28 +26984,28 @@
         <v>404</v>
       </c>
       <c r="Z213" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AA213" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AA213" t="s" s="2">
+      <c r="AB213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG213" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AB213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG213" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>76</v>
@@ -27026,13 +27022,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27058,13 +27054,13 @@
         <v>193</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="N214" t="s" s="2">
+      <c r="O214" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
@@ -27093,28 +27089,28 @@
         <v>178</v>
       </c>
       <c r="Z214" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AA214" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="AA214" t="s" s="2">
+      <c r="AB214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG214" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG214" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>76</v>
@@ -27131,13 +27127,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27236,13 +27232,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27341,13 +27337,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27373,7 +27369,7 @@
         <v>115</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>117</v>
@@ -27446,13 +27442,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27551,13 +27547,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27656,13 +27652,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27763,17 +27759,17 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" t="s" s="2">
@@ -27795,16 +27791,16 @@
         <v>141</v>
       </c>
       <c r="M221" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="N221" t="s" s="2">
+      <c r="O221" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="O221" t="s" s="2">
+      <c r="P221" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="P221" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="Q221" t="s" s="2">
         <v>78</v>
@@ -27853,7 +27849,7 @@
         <v>78</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>76</v>
@@ -27870,17 +27866,17 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
@@ -27899,19 +27895,19 @@
         <v>78</v>
       </c>
       <c r="L222" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="N222" t="s" s="2">
+      <c r="O222" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="O222" t="s" s="2">
+      <c r="P222" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="P222" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>78</v>
@@ -27960,7 +27956,7 @@
         <v>78</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>76</v>
@@ -27977,13 +27973,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28012,11 +28008,11 @@
         <v>158</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>78</v>
@@ -28026,7 +28022,7 @@
         <v>78</v>
       </c>
       <c r="T223" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U223" t="s" s="2">
         <v>78</v>
@@ -28045,7 +28041,7 @@
       </c>
       <c r="Z223" s="2"/>
       <c r="AA223" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AB223" t="s" s="2">
         <v>78</v>
@@ -28063,7 +28059,7 @@
         <v>78</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>85</v>
@@ -28080,17 +28076,17 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
@@ -28112,13 +28108,13 @@
         <v>165</v>
       </c>
       <c r="M224" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="N224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="P224" s="2"/>
       <c r="Q224" t="s" s="2">
@@ -28147,11 +28143,11 @@
         <v>178</v>
       </c>
       <c r="Z224" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AA224" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="AA224" t="s" s="2">
-        <v>714</v>
-      </c>
       <c r="AB224" t="s" s="2">
         <v>78</v>
       </c>
@@ -28168,7 +28164,7 @@
         <v>78</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>76</v>
@@ -28185,17 +28181,17 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" t="s" s="2">
@@ -28217,10 +28213,10 @@
         <v>165</v>
       </c>
       <c r="M225" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N225" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28251,7 +28247,7 @@
       </c>
       <c r="Z225" s="2"/>
       <c r="AA225" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>78</v>
@@ -28269,7 +28265,7 @@
         <v>78</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>85</v>
@@ -28286,17 +28282,17 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
@@ -28318,14 +28314,14 @@
         <v>304</v>
       </c>
       <c r="M226" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>78</v>
@@ -28374,7 +28370,7 @@
         <v>78</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>76</v>
@@ -28391,13 +28387,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28423,16 +28419,16 @@
         <v>316</v>
       </c>
       <c r="M227" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="N227" t="s" s="2">
+      <c r="O227" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="O227" t="s" s="2">
+      <c r="P227" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="Q227" t="s" s="2">
         <v>78</v>
@@ -28481,7 +28477,7 @@
         <v>78</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>76</v>
@@ -28498,17 +28494,17 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
@@ -28527,19 +28523,19 @@
         <v>86</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="N228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="O228" t="s" s="2">
+      <c r="P228" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="Q228" t="s" s="2">
         <v>78</v>
@@ -28588,7 +28584,7 @@
         <v>78</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>76</v>
@@ -28605,17 +28601,17 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s" s="2">
@@ -28637,16 +28633,16 @@
         <v>334</v>
       </c>
       <c r="M229" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="N229" t="s" s="2">
+      <c r="O229" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="O229" t="s" s="2">
+      <c r="P229" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="Q229" t="s" s="2">
         <v>78</v>
@@ -28695,7 +28691,7 @@
         <v>78</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>76</v>
@@ -28712,24 +28708,24 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>86</v>
@@ -28741,19 +28737,19 @@
         <v>86</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="N230" t="s" s="2">
+      <c r="O230" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="O230" t="s" s="2">
+      <c r="P230" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="Q230" t="s" s="2">
         <v>78</v>
@@ -28790,10 +28786,10 @@
         <v>78</v>
       </c>
       <c r="AC230" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AD230" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>78</v>
@@ -28802,7 +28798,7 @@
         <v>349</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>76</v>
@@ -28819,19 +28815,19 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B231" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="D231" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="E231" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="D231" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="E231" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
@@ -28850,19 +28846,19 @@
         <v>86</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="M231" t="s" s="2">
-        <v>756</v>
-      </c>
       <c r="N231" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="O231" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="O231" t="s" s="2">
+      <c r="P231" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="P231" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>78</v>
@@ -28911,7 +28907,7 @@
         <v>78</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>76</v>
@@ -28928,19 +28924,19 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B232" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="D232" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="E232" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="D232" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="E232" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
@@ -28959,19 +28955,19 @@
         <v>86</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M232" t="s" s="2">
-        <v>760</v>
-      </c>
       <c r="N232" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="O232" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="O232" t="s" s="2">
+      <c r="P232" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="P232" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="Q232" t="s" s="2">
         <v>78</v>
@@ -29020,7 +29016,7 @@
         <v>78</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>76</v>
@@ -29032,22 +29028,22 @@
         <v>78</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s" s="2">
@@ -29066,19 +29062,19 @@
         <v>86</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="N233" t="s" s="2">
+      <c r="O233" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="O233" t="s" s="2">
-        <v>767</v>
-      </c>
       <c r="P233" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q233" t="s" s="2">
         <v>78</v>
@@ -29127,7 +29123,7 @@
         <v>78</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>76</v>
@@ -29144,13 +29140,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29176,16 +29172,16 @@
         <v>468</v>
       </c>
       <c r="M234" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="N234" t="s" s="2">
+      <c r="O234" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="O234" t="s" s="2">
+      <c r="P234" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="Q234" t="s" s="2">
         <v>78</v>
@@ -29234,7 +29230,7 @@
         <v>78</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>76</v>
@@ -29251,17 +29247,17 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
@@ -29280,19 +29276,19 @@
         <v>78</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M235" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="N235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="O235" t="s" s="2">
+      <c r="P235" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="P235" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="Q235" t="s" s="2">
         <v>78</v>
@@ -29341,7 +29337,7 @@
         <v>78</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>76</v>
@@ -29358,13 +29354,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29387,16 +29383,16 @@
         <v>78</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="N236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
@@ -29446,7 +29442,7 @@
         <v>78</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>76</v>
@@ -29463,17 +29459,17 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
@@ -29495,14 +29491,14 @@
         <v>478</v>
       </c>
       <c r="M237" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q237" t="s" s="2">
         <v>78</v>
@@ -29551,7 +29547,7 @@
         <v>78</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>76</v>
@@ -29568,13 +29564,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29671,13 +29667,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29776,13 +29772,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29883,13 +29879,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -29915,16 +29911,16 @@
         <v>182</v>
       </c>
       <c r="M241" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="N241" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="N241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="O241" t="s" s="2">
+      <c r="P241" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="Q241" t="s" s="2">
         <v>78</v>
@@ -29973,7 +29969,7 @@
         <v>78</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>76</v>
@@ -29990,13 +29986,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30019,13 +30015,13 @@
         <v>86</v>
       </c>
       <c r="L242" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M242" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M242" t="s" s="2">
+      <c r="N242" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -30076,7 +30072,7 @@
         <v>78</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>85</v>
@@ -30093,17 +30089,17 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" t="s" s="2">
@@ -30125,14 +30121,14 @@
         <v>182</v>
       </c>
       <c r="M243" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N243" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q243" t="s" s="2">
         <v>78</v>
@@ -30181,7 +30177,7 @@
         <v>78</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>76</v>
@@ -30198,13 +30194,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30230,10 +30226,10 @@
         <v>165</v>
       </c>
       <c r="M244" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>808</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
@@ -30263,11 +30259,11 @@
         <v>178</v>
       </c>
       <c r="Z244" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AA244" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="AA244" t="s" s="2">
-        <v>811</v>
-      </c>
       <c r="AB244" t="s" s="2">
         <v>78</v>
       </c>
@@ -30284,7 +30280,7 @@
         <v>78</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>76</v>
@@ -30301,13 +30297,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30330,19 +30326,19 @@
         <v>78</v>
       </c>
       <c r="L245" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M245" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="N245" t="s" s="2">
+      <c r="O245" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="O245" t="s" s="2">
+      <c r="P245" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="Q245" t="s" s="2">
         <v>78</v>
@@ -30391,7 +30387,7 @@
         <v>78</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>76</v>
@@ -30408,13 +30404,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30440,10 +30436,10 @@
         <v>79</v>
       </c>
       <c r="M246" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N246" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
@@ -30494,7 +30490,7 @@
         <v>78</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>76</v>
@@ -30506,18 +30502,18 @@
         <v>78</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30616,13 +30612,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30719,13 +30715,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -30824,13 +30820,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30929,13 +30925,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30961,13 +30957,13 @@
         <v>141</v>
       </c>
       <c r="M251" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="N251" t="s" s="2">
         <v>832</v>
       </c>
-      <c r="N251" t="s" s="2">
+      <c r="O251" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
@@ -31017,7 +31013,7 @@
         <v>78</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>76</v>
@@ -31034,13 +31030,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31066,13 +31062,13 @@
         <v>105</v>
       </c>
       <c r="M252" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N252" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="N252" t="s" s="2">
+      <c r="O252" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="O252" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="P252" s="2"/>
       <c r="Q252" t="s" s="2">
@@ -31083,7 +31079,7 @@
         <v>78</v>
       </c>
       <c r="T252" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U252" t="s" s="2">
         <v>78</v>
@@ -31101,11 +31097,11 @@
         <v>162</v>
       </c>
       <c r="Z252" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="AA252" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="AA252" t="s" s="2">
-        <v>841</v>
-      </c>
       <c r="AB252" t="s" s="2">
         <v>78</v>
       </c>
@@ -31122,7 +31118,7 @@
         <v>78</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>85</v>
@@ -31139,13 +31135,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31171,13 +31167,13 @@
         <v>334</v>
       </c>
       <c r="M253" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="N253" t="s" s="2">
         <v>843</v>
       </c>
-      <c r="N253" t="s" s="2">
+      <c r="O253" t="s" s="2">
         <v>844</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>845</v>
       </c>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
@@ -31227,7 +31223,7 @@
         <v>78</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>76</v>
@@ -31244,13 +31240,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31273,16 +31269,16 @@
         <v>86</v>
       </c>
       <c r="L254" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="M254" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="N254" t="s" s="2">
+      <c r="O254" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="O254" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -31332,7 +31328,7 @@
         <v>78</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>76</v>
@@ -31341,7 +31337,7 @@
         <v>85</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>97</v>
@@ -31349,13 +31345,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31381,13 +31377,13 @@
         <v>478</v>
       </c>
       <c r="M255" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="N255" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="N255" t="s" s="2">
+      <c r="O255" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="O255" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
@@ -31437,7 +31433,7 @@
         <v>78</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>76</v>
@@ -31454,13 +31450,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31557,13 +31553,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31662,13 +31658,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31769,13 +31765,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31801,10 +31797,10 @@
         <v>182</v>
       </c>
       <c r="M259" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="N259" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N259" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
@@ -31855,7 +31851,7 @@
         <v>78</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>85</v>
@@ -31872,13 +31868,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31904,10 +31900,10 @@
         <v>99</v>
       </c>
       <c r="M260" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="N260" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="N260" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -31958,7 +31954,7 @@
         <v>78</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>85</v>
@@ -31975,13 +31971,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32007,10 +32003,10 @@
         <v>478</v>
       </c>
       <c r="M261" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N261" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
@@ -32061,7 +32057,7 @@
         <v>78</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>76</v>
@@ -32073,18 +32069,18 @@
         <v>78</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32181,13 +32177,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32286,13 +32282,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32393,13 +32389,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32425,10 +32421,10 @@
         <v>79</v>
       </c>
       <c r="M265" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="N265" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
@@ -32479,7 +32475,7 @@
         <v>78</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>76</v>
@@ -32496,13 +32492,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32528,13 +32524,13 @@
         <v>99</v>
       </c>
       <c r="M266" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="N266" t="s" s="2">
         <v>876</v>
       </c>
-      <c r="N266" t="s" s="2">
+      <c r="O266" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="O266" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
@@ -32584,7 +32580,7 @@
         <v>78</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>76</v>
@@ -32601,13 +32597,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32633,10 +32629,10 @@
         <v>122</v>
       </c>
       <c r="M267" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="N267" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
@@ -32687,7 +32683,7 @@
         <v>78</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>76</v>
@@ -32704,13 +32700,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32736,10 +32732,10 @@
         <v>478</v>
       </c>
       <c r="M268" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="N268" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -32790,7 +32786,7 @@
         <v>78</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>76</v>
@@ -32799,7 +32795,7 @@
         <v>85</v>
       </c>
       <c r="AJ268" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AK268" t="s" s="2">
         <v>97</v>
@@ -32807,13 +32803,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32910,13 +32906,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33015,13 +33011,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -33122,13 +33118,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33154,13 +33150,13 @@
         <v>105</v>
       </c>
       <c r="M272" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="N272" t="s" s="2">
         <v>890</v>
       </c>
-      <c r="N272" t="s" s="2">
+      <c r="O272" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="O272" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
@@ -33189,11 +33185,11 @@
         <v>162</v>
       </c>
       <c r="Z272" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="AA272" t="s" s="2">
         <v>893</v>
       </c>
-      <c r="AA272" t="s" s="2">
-        <v>894</v>
-      </c>
       <c r="AB272" t="s" s="2">
         <v>78</v>
       </c>
@@ -33210,7 +33206,7 @@
         <v>78</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>76</v>
@@ -33227,13 +33223,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33259,13 +33255,13 @@
         <v>360</v>
       </c>
       <c r="M273" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="N273" t="s" s="2">
         <v>896</v>
       </c>
-      <c r="N273" t="s" s="2">
+      <c r="O273" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>898</v>
       </c>
       <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
@@ -33315,7 +33311,7 @@
         <v>78</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>76</v>
@@ -33332,13 +33328,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33364,10 +33360,10 @@
         <v>478</v>
       </c>
       <c r="M274" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="N274" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>901</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -33418,7 +33414,7 @@
         <v>78</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>76</v>
@@ -33427,7 +33423,7 @@
         <v>85</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AK274" t="s" s="2">
         <v>97</v>
@@ -33435,13 +33431,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33538,13 +33534,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33643,13 +33639,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33750,13 +33746,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -33782,10 +33778,10 @@
         <v>105</v>
       </c>
       <c r="M278" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N278" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -33815,11 +33811,11 @@
         <v>162</v>
       </c>
       <c r="Z278" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="AA278" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="AA278" t="s" s="2">
-        <v>910</v>
-      </c>
       <c r="AB278" t="s" s="2">
         <v>78</v>
       </c>
@@ -33836,7 +33832,7 @@
         <v>78</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>85</v>
@@ -33853,13 +33849,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -33885,13 +33881,13 @@
         <v>99</v>
       </c>
       <c r="M279" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="N279" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="N279" t="s" s="2">
+      <c r="O279" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
@@ -33941,7 +33937,7 @@
         <v>78</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>85</v>
@@ -33958,13 +33954,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -33990,10 +33986,10 @@
         <v>182</v>
       </c>
       <c r="M280" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="N280" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
@@ -34044,7 +34040,7 @@
         <v>78</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>76</v>
@@ -34061,13 +34057,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34093,10 +34089,10 @@
         <v>334</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
@@ -34147,7 +34143,7 @@
         <v>78</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>76</v>
@@ -34164,13 +34160,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34196,10 +34192,10 @@
         <v>182</v>
       </c>
       <c r="M282" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N282" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -34250,7 +34246,7 @@
         <v>78</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>76</v>
@@ -34267,13 +34263,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34299,10 +34295,10 @@
         <v>182</v>
       </c>
       <c r="M283" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="N283" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
@@ -34353,7 +34349,7 @@
         <v>78</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>76</v>
@@ -34370,13 +34366,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34402,10 +34398,10 @@
         <v>478</v>
       </c>
       <c r="M284" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="N284" t="s" s="2">
         <v>927</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
@@ -34456,7 +34452,7 @@
         <v>78</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>76</v>
@@ -34465,7 +34461,7 @@
         <v>85</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AK284" t="s" s="2">
         <v>97</v>
@@ -34473,13 +34469,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34576,13 +34572,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34681,13 +34677,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -34788,13 +34784,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -34820,10 +34816,10 @@
         <v>182</v>
       </c>
       <c r="M288" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N288" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
@@ -34874,7 +34870,7 @@
         <v>78</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>85</v>
@@ -34891,13 +34887,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -34923,10 +34919,10 @@
         <v>99</v>
       </c>
       <c r="M289" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="N289" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
@@ -34977,7 +34973,7 @@
         <v>78</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>76</v>
@@ -34994,13 +34990,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35026,13 +35022,13 @@
         <v>182</v>
       </c>
       <c r="M290" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="N290" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="N290" t="s" s="2">
+      <c r="O290" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="O290" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -35082,7 +35078,7 @@
         <v>78</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>76</v>
@@ -35099,13 +35095,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35131,13 +35127,13 @@
         <v>334</v>
       </c>
       <c r="M291" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="N291" t="s" s="2">
+      <c r="O291" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="O291" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
@@ -35187,7 +35183,7 @@
         <v>78</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>76</v>
@@ -35204,13 +35200,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35236,13 +35232,13 @@
         <v>122</v>
       </c>
       <c r="M292" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="N292" t="s" s="2">
+      <c r="O292" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="O292" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
@@ -35292,7 +35288,7 @@
         <v>78</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>76</v>
@@ -35309,13 +35305,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35338,19 +35334,19 @@
         <v>86</v>
       </c>
       <c r="L293" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="M293" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M293" t="s" s="2">
+      <c r="N293" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="N293" t="s" s="2">
+      <c r="O293" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="O293" t="s" s="2">
+      <c r="P293" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="P293" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="Q293" t="s" s="2">
         <v>78</v>
@@ -35399,7 +35395,7 @@
         <v>78</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>76</v>
@@ -35416,13 +35412,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35448,10 +35444,10 @@
         <v>79</v>
       </c>
       <c r="M294" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="N294" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
@@ -35502,7 +35498,7 @@
         <v>78</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>76</v>
@@ -35514,18 +35510,18 @@
         <v>78</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35551,7 +35547,7 @@
         <v>87</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N295" t="s" s="2">
         <v>89</v>
@@ -35624,13 +35620,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -35727,13 +35723,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -35832,13 +35828,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -35937,13 +35933,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36042,13 +36038,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36147,13 +36143,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36252,13 +36248,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36359,13 +36355,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36391,16 +36387,16 @@
         <v>193</v>
       </c>
       <c r="M303" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="N303" t="s" s="2">
         <v>975</v>
       </c>
-      <c r="N303" t="s" s="2">
+      <c r="O303" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="O303" t="s" s="2">
+      <c r="P303" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="P303" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="Q303" t="s" s="2">
         <v>78</v>
@@ -36410,7 +36406,7 @@
         <v>78</v>
       </c>
       <c r="T303" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U303" t="s" s="2">
         <v>78</v>
@@ -36429,7 +36425,7 @@
       </c>
       <c r="Z303" s="2"/>
       <c r="AA303" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AB303" t="s" s="2">
         <v>78</v>
@@ -36447,7 +36443,7 @@
         <v>78</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>85</v>
@@ -36464,13 +36460,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36567,13 +36563,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -36672,13 +36668,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -36779,13 +36775,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36884,13 +36880,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -36989,13 +36985,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37094,13 +37090,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37201,13 +37197,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37233,16 +37229,16 @@
         <v>478</v>
       </c>
       <c r="M311" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N311" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="N311" t="s" s="2">
+      <c r="O311" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="O311" t="s" s="2">
+      <c r="P311" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="P311" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="Q311" t="s" s="2">
         <v>78</v>
@@ -37279,7 +37275,7 @@
         <v>78</v>
       </c>
       <c r="AC311" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AD311" s="2"/>
       <c r="AE311" t="s" s="2">
@@ -37289,7 +37285,7 @@
         <v>349</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>76</v>
@@ -37306,13 +37302,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37409,13 +37405,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37514,13 +37510,13 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37621,13 +37617,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37653,14 +37649,14 @@
         <v>182</v>
       </c>
       <c r="M315" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="N315" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q315" t="s" s="2">
         <v>78</v>
@@ -37709,7 +37705,7 @@
         <v>78</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>76</v>
@@ -37726,13 +37722,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37755,17 +37751,17 @@
         <v>86</v>
       </c>
       <c r="L316" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M316" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q316" t="s" s="2">
         <v>78</v>
@@ -37814,7 +37810,7 @@
         <v>78</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>76</v>
@@ -37831,13 +37827,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -37860,19 +37856,19 @@
         <v>86</v>
       </c>
       <c r="L317" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M317" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="M317" t="s" s="2">
+      <c r="N317" t="s" s="2">
         <v>1008</v>
       </c>
-      <c r="N317" t="s" s="2">
+      <c r="O317" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="O317" t="s" s="2">
+      <c r="P317" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="P317" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="Q317" t="s" s="2">
         <v>78</v>
@@ -37921,7 +37917,7 @@
         <v>78</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>85</v>
@@ -37938,13 +37934,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -37967,17 +37963,17 @@
         <v>86</v>
       </c>
       <c r="L318" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="M318" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="M318" t="s" s="2">
+      <c r="N318" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q318" t="s" s="2">
         <v>78</v>
@@ -38026,7 +38022,7 @@
         <v>78</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>76</v>
@@ -38043,16 +38039,16 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B319" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="D319" t="s" s="2">
         <v>1017</v>
-      </c>
-      <c r="C319" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="D319" t="s" s="2">
-        <v>1018</v>
       </c>
       <c r="E319" t="s" s="2">
         <v>78</v>
@@ -38077,16 +38073,16 @@
         <v>478</v>
       </c>
       <c r="M319" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N319" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="N319" t="s" s="2">
+      <c r="O319" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="O319" t="s" s="2">
+      <c r="P319" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="P319" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="Q319" t="s" s="2">
         <v>78</v>
@@ -38135,7 +38131,7 @@
         <v>78</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>76</v>
@@ -38152,13 +38148,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38255,13 +38251,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38287,10 +38283,10 @@
         <v>129</v>
       </c>
       <c r="M321" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N321" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -38356,16 +38352,16 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B322" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="D322" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="C322" t="s" s="2">
-        <v>995</v>
-      </c>
-      <c r="D322" t="s" s="2">
-        <v>1024</v>
       </c>
       <c r="E322" t="s" s="2">
         <v>78</v>
@@ -38387,13 +38383,13 @@
         <v>78</v>
       </c>
       <c r="L322" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M322" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="M322" t="s" s="2">
+      <c r="N322" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
@@ -38453,7 +38449,7 @@
         <v>77</v>
       </c>
       <c r="AJ322" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AK322" t="s" s="2">
         <v>134</v>
@@ -38461,13 +38457,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B323" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="C323" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="C323" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38564,13 +38560,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B324" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C324" t="s" s="2">
         <v>1031</v>
-      </c>
-      <c r="C324" t="s" s="2">
-        <v>1032</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38596,10 +38592,10 @@
         <v>129</v>
       </c>
       <c r="M324" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N324" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
@@ -38667,13 +38663,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B325" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="C325" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38699,13 +38695,13 @@
         <v>99</v>
       </c>
       <c r="M325" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N325" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="N325" t="s" s="2">
+      <c r="O325" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
@@ -38713,49 +38709,49 @@
       </c>
       <c r="R325" s="2"/>
       <c r="S325" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG325" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF325" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG325" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>85</v>
@@ -38772,13 +38768,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B326" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="C326" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="C326" t="s" s="2">
-        <v>1041</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38804,10 +38800,10 @@
         <v>193</v>
       </c>
       <c r="M326" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="N326" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>1043</v>
       </c>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
@@ -38819,46 +38815,46 @@
         <v>78</v>
       </c>
       <c r="T326" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG326" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="U326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF326" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG326" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>76</v>
@@ -38875,13 +38871,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B327" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="C327" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="C327" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -38978,13 +38974,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B328" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="C328" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="C328" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39083,13 +39079,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B329" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="C329" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="C329" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39134,7 +39130,7 @@
         <v>78</v>
       </c>
       <c r="T329" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="U329" t="s" s="2">
         <v>78</v>
@@ -39190,13 +39186,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B330" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="C330" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="C330" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39295,13 +39291,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B331" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C331" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="C331" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39400,13 +39396,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B332" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="C332" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="C332" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39505,13 +39501,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B333" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="C333" t="s" s="2">
         <v>1059</v>
-      </c>
-      <c r="C333" t="s" s="2">
-        <v>1060</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39612,13 +39608,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39719,13 +39715,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39751,14 +39747,14 @@
         <v>182</v>
       </c>
       <c r="M335" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="N335" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q335" t="s" s="2">
         <v>78</v>
@@ -39807,7 +39803,7 @@
         <v>78</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>76</v>
@@ -39824,13 +39820,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39853,17 +39849,17 @@
         <v>86</v>
       </c>
       <c r="L336" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M336" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q336" t="s" s="2">
         <v>78</v>
@@ -39912,7 +39908,7 @@
         <v>78</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>76</v>
@@ -39929,13 +39925,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -39958,19 +39954,19 @@
         <v>86</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M337" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>1008</v>
       </c>
-      <c r="N337" t="s" s="2">
+      <c r="O337" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="O337" t="s" s="2">
+      <c r="P337" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="P337" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>78</v>
@@ -40019,7 +40015,7 @@
         <v>78</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>85</v>
@@ -40036,13 +40032,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40065,17 +40061,17 @@
         <v>86</v>
       </c>
       <c r="L338" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M338" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="M338" t="s" s="2">
-        <v>1067</v>
-      </c>
       <c r="N338" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O338" s="2"/>
       <c r="P338" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q338" t="s" s="2">
         <v>78</v>
@@ -40124,7 +40120,7 @@
         <v>78</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>76</v>
@@ -40141,16 +40137,16 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B339" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="D339" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="C339" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="D339" t="s" s="2">
-        <v>1069</v>
       </c>
       <c r="E339" t="s" s="2">
         <v>78</v>
@@ -40175,16 +40171,16 @@
         <v>478</v>
       </c>
       <c r="M339" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N339" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="N339" t="s" s="2">
+      <c r="O339" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="O339" t="s" s="2">
+      <c r="P339" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="P339" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="Q339" t="s" s="2">
         <v>78</v>
@@ -40233,7 +40229,7 @@
         <v>78</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>76</v>
@@ -40250,13 +40246,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40353,13 +40349,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40385,10 +40381,10 @@
         <v>129</v>
       </c>
       <c r="M341" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N341" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N341" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
@@ -40454,16 +40450,16 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E342" t="s" s="2">
         <v>78</v>
@@ -40485,13 +40481,13 @@
         <v>78</v>
       </c>
       <c r="L342" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M342" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" s="2"/>
@@ -40551,7 +40547,7 @@
         <v>77</v>
       </c>
       <c r="AJ342" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AK342" t="s" s="2">
         <v>134</v>
@@ -40559,13 +40555,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40662,13 +40658,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40694,10 +40690,10 @@
         <v>129</v>
       </c>
       <c r="M344" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N344" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
@@ -40765,13 +40761,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40797,13 +40793,13 @@
         <v>99</v>
       </c>
       <c r="M345" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N345" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="N345" t="s" s="2">
+      <c r="O345" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
@@ -40811,49 +40807,49 @@
       </c>
       <c r="R345" s="2"/>
       <c r="S345" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG345" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="T345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF345" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG345" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>85</v>
@@ -40870,13 +40866,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -40902,10 +40898,10 @@
         <v>193</v>
       </c>
       <c r="M346" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="N346" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>1043</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
@@ -40917,7 +40913,7 @@
         <v>78</v>
       </c>
       <c r="T346" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="U346" t="s" s="2">
         <v>78</v>
@@ -40956,7 +40952,7 @@
         <v>78</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>76</v>
@@ -40973,13 +40969,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41076,13 +41072,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41181,13 +41177,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41232,7 +41228,7 @@
         <v>78</v>
       </c>
       <c r="T349" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="U349" t="s" s="2">
         <v>78</v>
@@ -41288,13 +41284,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41393,13 +41389,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41498,13 +41494,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41603,13 +41599,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41710,13 +41706,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41817,13 +41813,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41849,14 +41845,14 @@
         <v>182</v>
       </c>
       <c r="M355" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="N355" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="N355" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q355" t="s" s="2">
         <v>78</v>
@@ -41905,7 +41901,7 @@
         <v>78</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>76</v>
@@ -41922,13 +41918,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -41951,17 +41947,17 @@
         <v>86</v>
       </c>
       <c r="L356" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M356" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="N356" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q356" t="s" s="2">
         <v>78</v>
@@ -42010,7 +42006,7 @@
         <v>78</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>76</v>
@@ -42027,13 +42023,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42056,19 +42052,19 @@
         <v>86</v>
       </c>
       <c r="L357" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M357" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="M357" t="s" s="2">
+      <c r="N357" t="s" s="2">
         <v>1008</v>
       </c>
-      <c r="N357" t="s" s="2">
+      <c r="O357" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="O357" t="s" s="2">
+      <c r="P357" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="P357" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="Q357" t="s" s="2">
         <v>78</v>
@@ -42117,7 +42113,7 @@
         <v>78</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>85</v>
@@ -42134,13 +42130,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42163,17 +42159,17 @@
         <v>86</v>
       </c>
       <c r="L358" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="M358" t="s" s="2">
         <v>1090</v>
       </c>
-      <c r="M358" t="s" s="2">
-        <v>1091</v>
-      </c>
       <c r="N358" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>78</v>
@@ -42222,7 +42218,7 @@
         <v>78</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>76</v>
@@ -42239,13 +42235,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -42268,19 +42264,19 @@
         <v>86</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M359" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="N359" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="N359" t="s" s="2">
+      <c r="O359" t="s" s="2">
         <v>1094</v>
       </c>
-      <c r="O359" t="s" s="2">
-        <v>1095</v>
-      </c>
       <c r="P359" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>78</v>
@@ -42329,7 +42325,7 @@
         <v>78</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>76</v>
@@ -42346,13 +42342,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -42375,19 +42371,19 @@
         <v>86</v>
       </c>
       <c r="L360" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="M360" t="s" s="2">
         <v>1097</v>
       </c>
-      <c r="M360" t="s" s="2">
+      <c r="N360" t="s" s="2">
         <v>1098</v>
       </c>
-      <c r="N360" t="s" s="2">
+      <c r="O360" t="s" s="2">
         <v>1099</v>
       </c>
-      <c r="O360" t="s" s="2">
+      <c r="P360" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="P360" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>78</v>
@@ -42436,7 +42432,7 @@
         <v>78</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>76</v>
@@ -42453,13 +42449,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -42482,19 +42478,19 @@
         <v>86</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="M361" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="N361" t="s" s="2">
         <v>1103</v>
       </c>
-      <c r="N361" t="s" s="2">
-        <v>1104</v>
-      </c>
       <c r="O361" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="P361" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="P361" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>78</v>
@@ -42543,7 +42539,7 @@
         <v>78</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>76</v>
@@ -42560,13 +42556,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -42592,14 +42588,14 @@
         <v>478</v>
       </c>
       <c r="M362" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="N362" t="s" s="2">
         <v>1106</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>1107</v>
       </c>
       <c r="O362" s="2"/>
       <c r="P362" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>78</v>
@@ -42648,7 +42644,7 @@
         <v>78</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>85</v>
@@ -42665,13 +42661,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -42768,13 +42764,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -42873,13 +42869,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -42980,13 +42976,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43012,14 +43008,14 @@
         <v>182</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O366" s="2"/>
       <c r="P366" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q366" t="s" s="2">
         <v>78</v>
@@ -43068,7 +43064,7 @@
         <v>78</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>76</v>
@@ -43085,13 +43081,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43117,14 +43113,14 @@
         <v>182</v>
       </c>
       <c r="M367" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N367" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="N367" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="O367" s="2"/>
       <c r="P367" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Q367" t="s" s="2">
         <v>78</v>
@@ -43173,7 +43169,7 @@
         <v>78</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>76</v>
@@ -43190,13 +43186,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43222,14 +43218,14 @@
         <v>182</v>
       </c>
       <c r="M368" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="N368" t="s" s="2">
         <v>1120</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>1121</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>78</v>
@@ -43278,7 +43274,7 @@
         <v>78</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>76</v>
@@ -43295,13 +43291,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43324,17 +43320,17 @@
         <v>86</v>
       </c>
       <c r="L369" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="M369" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="M369" t="s" s="2">
+      <c r="N369" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="O369" s="2"/>
       <c r="P369" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>78</v>
@@ -43383,7 +43379,7 @@
         <v>78</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>76</v>
@@ -43400,13 +43396,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43429,19 +43425,19 @@
         <v>86</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M370" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N370" t="s" s="2">
         <v>1128</v>
       </c>
-      <c r="N370" t="s" s="2">
+      <c r="O370" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="P370" t="s" s="2">
         <v>1129</v>
-      </c>
-      <c r="O370" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="P370" t="s" s="2">
-        <v>1130</v>
       </c>
       <c r="Q370" t="s" s="2">
         <v>78</v>
@@ -43490,7 +43486,7 @@
         <v>78</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>85</v>
@@ -43507,13 +43503,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -43536,19 +43532,19 @@
         <v>86</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M371" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="N371" t="s" s="2">
         <v>1132</v>
       </c>
-      <c r="N371" t="s" s="2">
-        <v>1133</v>
-      </c>
       <c r="O371" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="P371" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="P371" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="Q371" t="s" s="2">
         <v>78</v>
@@ -43597,7 +43593,7 @@
         <v>78</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>76</v>
@@ -43614,13 +43610,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -43646,14 +43642,14 @@
         <v>165</v>
       </c>
       <c r="M372" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="N372" t="s" s="2">
         <v>1135</v>
-      </c>
-      <c r="N372" t="s" s="2">
-        <v>1136</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>78</v>
@@ -43681,11 +43677,11 @@
         <v>178</v>
       </c>
       <c r="Z372" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="AA372" t="s" s="2">
         <v>1138</v>
       </c>
-      <c r="AA372" t="s" s="2">
-        <v>1139</v>
-      </c>
       <c r="AB372" t="s" s="2">
         <v>78</v>
       </c>
@@ -43702,7 +43698,7 @@
         <v>78</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>76</v>
@@ -43719,13 +43715,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -43751,10 +43747,10 @@
         <v>478</v>
       </c>
       <c r="M373" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="N373" t="s" s="2">
         <v>1141</v>
-      </c>
-      <c r="N373" t="s" s="2">
-        <v>1142</v>
       </c>
       <c r="O373" s="2"/>
       <c r="P373" s="2"/>
@@ -43805,7 +43801,7 @@
         <v>78</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>76</v>
@@ -43822,13 +43818,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -43925,13 +43921,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44030,13 +44026,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44137,13 +44133,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44169,14 +44165,14 @@
         <v>87</v>
       </c>
       <c r="M377" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="N377" t="s" s="2">
         <v>1147</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>1148</v>
       </c>
       <c r="O377" s="2"/>
       <c r="P377" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q377" t="s" s="2">
         <v>78</v>
@@ -44225,7 +44221,7 @@
         <v>78</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>85</v>
@@ -44242,13 +44238,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -44274,16 +44270,16 @@
         <v>105</v>
       </c>
       <c r="M378" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="N378" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="N378" t="s" s="2">
+      <c r="O378" t="s" s="2">
         <v>1152</v>
       </c>
-      <c r="O378" t="s" s="2">
+      <c r="P378" t="s" s="2">
         <v>1153</v>
-      </c>
-      <c r="P378" t="s" s="2">
-        <v>1154</v>
       </c>
       <c r="Q378" t="s" s="2">
         <v>78</v>
@@ -44311,11 +44307,11 @@
         <v>162</v>
       </c>
       <c r="Z378" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="AA378" t="s" s="2">
         <v>1155</v>
       </c>
-      <c r="AA378" t="s" s="2">
-        <v>1156</v>
-      </c>
       <c r="AB378" t="s" s="2">
         <v>78</v>
       </c>
@@ -44332,7 +44328,7 @@
         <v>78</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>85</v>
@@ -44349,13 +44345,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -44378,19 +44374,19 @@
         <v>86</v>
       </c>
       <c r="L379" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="M379" t="s" s="2">
         <v>1158</v>
       </c>
-      <c r="M379" t="s" s="2">
+      <c r="N379" t="s" s="2">
         <v>1159</v>
       </c>
-      <c r="N379" t="s" s="2">
+      <c r="O379" t="s" s="2">
         <v>1160</v>
       </c>
-      <c r="O379" t="s" s="2">
+      <c r="P379" t="s" s="2">
         <v>1161</v>
-      </c>
-      <c r="P379" t="s" s="2">
-        <v>1162</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>78</v>
@@ -44439,7 +44435,7 @@
         <v>78</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>76</v>
@@ -44456,13 +44452,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44485,19 +44481,19 @@
         <v>86</v>
       </c>
       <c r="L380" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="M380" t="s" s="2">
         <v>1164</v>
       </c>
-      <c r="M380" t="s" s="2">
+      <c r="N380" t="s" s="2">
         <v>1165</v>
       </c>
-      <c r="N380" t="s" s="2">
+      <c r="O380" t="s" s="2">
         <v>1166</v>
       </c>
-      <c r="O380" t="s" s="2">
+      <c r="P380" t="s" s="2">
         <v>1167</v>
-      </c>
-      <c r="P380" t="s" s="2">
-        <v>1168</v>
       </c>
       <c r="Q380" t="s" s="2">
         <v>78</v>
@@ -44546,7 +44542,7 @@
         <v>78</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>76</v>
@@ -44563,13 +44559,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -44592,17 +44588,17 @@
         <v>86</v>
       </c>
       <c r="L381" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="M381" t="s" s="2">
         <v>1170</v>
       </c>
-      <c r="M381" t="s" s="2">
+      <c r="N381" t="s" s="2">
         <v>1171</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>1172</v>
       </c>
       <c r="O381" s="2"/>
       <c r="P381" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q381" t="s" s="2">
         <v>78</v>
@@ -44651,7 +44647,7 @@
         <v>78</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>76</v>
@@ -44663,7 +44659,7 @@
         <v>78</v>
       </c>
       <c r="AK381" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>

--- a/ig/homecareobservation/all-profiles.xlsx
+++ b/ig/homecareobservation/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T12:37:39+00:00</t>
+    <t>2025-12-19T07:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
